--- a/medicine/Psychotrope/Brasserie_La_Frasnoise/Brasserie_La_Frasnoise.xlsx
+++ b/medicine/Psychotrope/Brasserie_La_Frasnoise/Brasserie_La_Frasnoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie La Frasnoise est une brasserie artisanale belge située à Frasnes-lez-Buissenal dans la commune de Frasnes-lez-Anvaing en province de Hainaut dans le Pays des Collines.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 2004 par Bruno Delroisse dans une vieille bâtisse restaurée située à côté de l'église du village de Frasnes-lez-Buissenal. La petite entreprise fabrique des bières de haute fermentation avec refermentation en bouteille suivant des procédés traditionnels. La cuve de filtration a une capacité de 1000 litres. Les trois cuves de fermentation et de stockage ont été achetés en Slovaquie. La capacité de brassage est de 8 hectolitres par semaine. La première bière brassée est la Frasnoise Givrée. En mars 2009, une seconde bière voit le jour. C'est la Frasnoise Rétro. La vente des bières est en grande partie locale, entre autres dans la petite taverne qui jouxte la brasserie.
 </t>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Frasnoise Givrée, une bière blonde cuivrée titrant 6,3 % en volume d'alcool. Elle a obtenu un Fourquet d'Argent au Concours International de Saint-Nicolas-de-Port en 2007.
 Frasnoise Rétro, une bière ambrée titrant 6,5 % en volume d'alcool.
